--- a/scripts/Engajamento/outputs/analise_engajamento.xlsx
+++ b/scripts/Engajamento/outputs/analise_engajamento.xlsx
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="inlineStr">
         <is>
@@ -1084,20 +1084,20 @@
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>Ausente</t>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t>Médio</t>
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
     </row>
@@ -1156,19 +1156,19 @@
       <c r="C15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Ausente</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Ausente</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>Ausente</t>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -1298,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
@@ -1626,11 +1626,11 @@
         <v>2</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t>Médio</t>
+        <v>11</v>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
@@ -2241,11 +2241,11 @@
         <v>2</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I41" s="7" t="inlineStr">
-        <is>
-          <t>Médio</t>
+        <v>11</v>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
@@ -3061,11 +3061,11 @@
         <v>1</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I61" s="7" t="inlineStr">
-        <is>
-          <t>Médio</t>
+        <v>11</v>
+      </c>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
         <v>2</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I65" s="5" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I66" s="5" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I67" s="5" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I68" s="7" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I69" s="7" t="inlineStr">
         <is>
